--- a/02-PROJETOS/ProjetoFinal/Docs/cronograma.xlsx
+++ b/02-PROJETOS/ProjetoFinal/Docs/cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\ProjetoFinal\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA99B3-168C-43F8-91A7-6C24FF8843EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5336FB1-C1B7-4B97-9BE5-710985B18C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{64285216-FF4C-4D73-ADE6-AEABECB7A2F6}"/>
   </bookViews>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,7 +271,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +609,7 @@
   <dimension ref="A1:AU18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,16 +1205,16 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
@@ -1259,16 +1258,16 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
@@ -1375,7 +1374,7 @@
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="6"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
